--- a/src/assets/sample_shipments.xlsx
+++ b/src/assets/sample_shipments.xlsx
@@ -13,55 +13,65 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shipment_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pincode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opening_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closing_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">touch_point_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">external_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shipment Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opening Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch Point Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Id</t>
   </si>
   <si>
     <t xml:space="preserve">SHP12345</t>
   </si>
   <si>
+    <t xml:space="preserve">Harsh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Electronics</t>
   </si>
   <si>
-    <t xml:space="preserve">Address 1</t>
+    <t xml:space="preserve">Wz-281 sakurpur village  Wz-281 sakurpur village    Delhi Delhi 110034
+</t>
   </si>
   <si>
     <t xml:space="preserve">110001</t>
@@ -76,16 +86,16 @@
     <t xml:space="preserve">PICKUP</t>
   </si>
   <si>
-    <t xml:space="preserve">q1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHP67890</t>
   </si>
   <si>
+    <t xml:space="preserve">Abhishek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Furniture</t>
   </si>
   <si>
-    <t xml:space="preserve">Address 2</t>
+    <t xml:space="preserve">shop no-212, harsh vihar </t>
   </si>
   <si>
     <t xml:space="preserve">110002</t>
@@ -98,17 +108,16 @@
   </si>
   <si>
     <t xml:space="preserve">DROP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -136,7 +145,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -191,17 +200,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -287,9 +324,7 @@
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
@@ -299,21 +334,21 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
           <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
@@ -358,7 +393,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -370,13 +405,11 @@
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -396,120 +429,141 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="2" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="3" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="13.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="n">
         <v>10.5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="C2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="7" t="n">
+        <v>9877306965</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>28.28</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>72.72</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="H2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="M2" s="7" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="7" t="n">
+        <v>8977036927</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="G3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>28.72</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="M3" s="7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/sample_shipments.xlsx
+++ b/src/assets/sample_shipments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t xml:space="preserve">Weight</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t xml:space="preserve">External Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode of Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split</t>
   </si>
   <si>
     <t xml:space="preserve">SHP12345</t>
@@ -86,6 +98,12 @@
     <t xml:space="preserve">PICKUP</t>
   </si>
   <si>
+    <t xml:space="preserve">try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paid</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHP67890</t>
   </si>
   <si>
@@ -108,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">DROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">again</t>
   </si>
 </sst>
 </file>
@@ -200,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -231,6 +252,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -429,10 +454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -483,87 +508,123 @@
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>10.5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>9877306965</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="8" t="n">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="n">
         <v>28.68</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="9" t="n">
         <v>77.14</v>
       </c>
       <c r="M2" s="7" t="n">
         <v>1</v>
       </c>
+      <c r="N2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>8977036927</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="8" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" s="9" t="n">
         <v>28.69</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="9" t="n">
         <v>77.14</v>
       </c>
       <c r="M3" s="7" t="n">
         <v>3</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/sample_shipments.xlsx
+++ b/src/assets/sample_shipments.xlsx
@@ -143,7 +143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +224,9 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,12 +549,12 @@
     <col min="11" max="11" style="11" width="13.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="11" width="13.005" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="10" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
       <c r="A2" s="6">
         <v>10.5</v>
       </c>
@@ -651,7 +654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
       <c r="A3" s="7">
         <v>15</v>
       </c>
